--- a/accb_custo_total_ilheus.xlsx
+++ b/accb_custo_total_ilheus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\UESC_IC\rede_neural_previsao_ccb_produtos_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ED00B9-8871-4D4C-AE3A-E150D052BC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37615612-9BFD-47FD-8E06-DC27C0CBCAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -292,7 +292,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="B213" sqref="B213"/>
+      <selection activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1996,7 +1996,14 @@
         <v>538.27</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B213" s="4">
+        <v>516.04</v>
+      </c>
+    </row>
     <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/accb_custo_total_ilheus.xlsx
+++ b/accb_custo_total_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37615612-9BFD-47FD-8E06-DC27C0CBCAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D134B988-27AE-44D5-9529-85C3E31A90B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -291,8 +291,8 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="B214" sqref="B214"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2004,7 +2004,14 @@
         <v>516.04</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B214" s="4">
+        <v>520.57000000000005</v>
+      </c>
+    </row>
     <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
